--- a/biology/Botanique/Hypholoma_sublateritium/Hypholoma_sublateritium.xlsx
+++ b/biology/Botanique/Hypholoma_sublateritium/Hypholoma_sublateritium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypholoma sublateritium, de son nom vernaculaire Hypholome couleur de brique, est un champignon basidiomycète du genre Hypholoma dans la famille des Strophariaceae. Il est non comestible, saprophyte, grégaire et fasciculé. 
 </t>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binominal
-Selon les sources[1] :
-Hypholoma sublateritium (Fries) Quélet 1873[2]
-Hypholoma lateritium (Schaeff.) P. Kumm. 1871[3],[4].
-Synonymes
-Agaricus lateritius Schaeff. 1774
+          <t>Nom binominal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon les sources :
+Hypholoma sublateritium (Fries) Quélet 1873
+Hypholoma lateritium (Schaeff.) P. Kumm. 1871,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hypholoma_sublateritium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypholoma_sublateritium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus lateritius Schaeff. 1774
 Hypholoma lateritium var. lateritium (Schaeff.) P. Kumm. 1871 
 Hypholoma lateritium var. pomposum (Bolton) P. Roux &amp; Guy Garcia 2006 
 Hypholoma sublateritium (Schaeff.) Quél. 1873 
@@ -530,33 +581,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Hypholoma_sublateritium</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hypholoma_sublateritium</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyménophore : le chapeau est de 3,5 à 10 cm de diamètre, convexe à large convexe, parfois presque plat ou irrégulier en vieillissant. Très jeune, il présente un voile partiel submembraneux, ressemblant à un mélange entre une cortine et un voile plus important[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyménophore : le chapeau est de 3,5 à 10 cm de diamètre, convexe à large convexe, parfois presque plat ou irrégulier en vieillissant. Très jeune, il présente un voile partiel submembraneux, ressemblant à un mélange entre une cortine et un voile plus important.
 Grégaire, il est conné, cespiteux, mais plus rarement fasciculé.
 La cuticule du sporophore présente généralement une coloration rouge brique en son centre et une marge plus pâle. Elle est lisse, parfois avec des taches rouge-brun au milieu. Le chapeau peut présenter des lambeaux du voile à sa marge, qui peuvent facilement être lavés par la pluie. 
 Les lames, au départ jaunâtres ou jaune soufré, deviennent grisâtres avec l'âge. Elles n'ont pas la couleur verte de l'Hypholoma fasciculare. 
@@ -568,37 +621,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hypholoma_sublateritium</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypholoma_sublateritium</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toxique, il serait toutefois comestible après cuisson[6].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -620,10 +642,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toxique, il serait toutefois comestible après cuisson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypholoma_sublateritium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypholoma_sublateritium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Saprophyte, forme des touffes sur les feuillus en décomposition et les souches ; automne ; largement distribué dans l'hémisphère nord.
 </t>
